--- a/saucedemo-testing/test-cases/sorting-test-cases.xlsx
+++ b/saucedemo-testing/test-cases/sorting-test-cases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Manual QA portfolio\saucedemo-testing\test-cases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917D2BAD-3DBE-492B-B99A-BB4EE9621EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="16860" yWindow="823" windowWidth="15317" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,172 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+  <si>
+    <t>Project name</t>
+  </si>
+  <si>
+    <t>Saucedemo-testing</t>
+  </si>
+  <si>
+    <t>Module name</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Created by</t>
+  </si>
+  <si>
+    <t>Islom Boynazarov</t>
+  </si>
+  <si>
+    <t>Creation Date</t>
+  </si>
+  <si>
+    <t>Received by</t>
+  </si>
+  <si>
+    <t>Test Lead</t>
+  </si>
+  <si>
+    <t>Received Date</t>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t>Test Scenario Description</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Post Conditions</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Executed By</t>
+  </si>
+  <si>
+    <t>Executed Date</t>
+  </si>
+  <si>
+    <t>Comment(if any)</t>
+  </si>
+  <si>
+    <t>SC_LOGIN_01</t>
+  </si>
+  <si>
+    <t>Verify login with 
+credentials</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_001</t>
+  </si>
+  <si>
+    <t>Enter a valid 
+username &amp; password</t>
+  </si>
+  <si>
+    <t>1. Enter valid username
+2. Enter valid password
+3. Click on Login button</t>
+  </si>
+  <si>
+    <t>Valid URL
+Test Data</t>
+  </si>
+  <si>
+    <t>username: blabla
+password: blabl</t>
+  </si>
+  <si>
+    <t>User should be able to see home page</t>
+  </si>
+  <si>
+    <t>Successful login</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Tester_Islom</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_002</t>
+  </si>
+  <si>
+    <t>Enter a valid 
+username &amp; invalid password</t>
+  </si>
+  <si>
+    <t>1. Enter valid username
+2. Enter invalid password
+3. Click on Login button</t>
+  </si>
+  <si>
+    <t>invalid username or password</t>
+  </si>
+  <si>
+    <t>A popup message box to show an error "Invalid username or password"</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_003</t>
+  </si>
+  <si>
+    <t>Enter a 
+invalid username &amp; valid password</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username
+2. Enter valid password
+3. Click on Login button</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_004</t>
+  </si>
+  <si>
+    <t>Enter a invalid 
+username &amp; invalid password</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username
+2. Enter invalid password
+3. Click on Login button</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +199,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +233,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +548,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="6">
+        <v>46040</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>